--- a/China Lake_Correlation.xlsx
+++ b/China Lake_Correlation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryan/Desktop/Y4S1/Machine Learning/Coursework/CWProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD288295-3FB4-D64E-AB97-61E18E7D22EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7F8782C-7337-8843-B661-F603FC77D971}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,9 +25,6 @@
     <t>Pearson</t>
   </si>
   <si>
-    <t>Spearman Ranlk</t>
-  </si>
-  <si>
     <t>Kendall Rank</t>
   </si>
   <si>
@@ -44,6 +41,9 @@
   </si>
   <si>
     <t>TEMPERATURE (Centrigrade)</t>
+  </si>
+  <si>
+    <t>Spearman Rank</t>
   </si>
 </sst>
 </file>
@@ -408,17 +408,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.83203125" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
-    <col min="4" max="5" width="11.83203125" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -426,21 +424,21 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -460,42 +458,42 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3">
-        <v>0.47086084968720687</v>
+        <v>0.40808020451300742</v>
       </c>
       <c r="C3">
-        <v>0.54088680589555393</v>
+        <v>0.53435876910051139</v>
       </c>
       <c r="D3">
-        <v>0.37465278434598642</v>
+        <v>0.36795333174594141</v>
       </c>
       <c r="E3">
-        <v>0.52127711924799447</v>
+        <v>0.48411558176068259</v>
       </c>
       <c r="F3">
-        <v>0.50678390432596754</v>
+        <v>0.47954429839805951</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4">
-        <v>0.38688886965279012</v>
+        <v>0.39243199491588882</v>
       </c>
       <c r="C4">
-        <v>0.37997801953866561</v>
+        <v>0.36567253357009111</v>
       </c>
       <c r="D4">
-        <v>0.26436350188327312</v>
+        <v>0.25034515234509291</v>
       </c>
       <c r="E4">
-        <v>0.38834989751390669</v>
+        <v>0.36712356583601702</v>
       </c>
       <c r="F4">
-        <v>0.38620136559370472</v>
+        <v>0.35815321460819688</v>
       </c>
     </row>
   </sheetData>

--- a/China Lake_Correlation.xlsx
+++ b/China Lake_Correlation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryan/Desktop/Y4S1/Machine Learning/Coursework/CWProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7F8782C-7337-8843-B661-F603FC77D971}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{859E6FCB-B7FF-CA48-B791-F55E3A07C4CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,9 @@
     <t>Pearson</t>
   </si>
   <si>
+    <t>Spearman Rank</t>
+  </si>
+  <si>
     <t>Kendall Rank</t>
   </si>
   <si>
@@ -41,9 +44,6 @@
   </si>
   <si>
     <t>TEMPERATURE (Centrigrade)</t>
-  </si>
-  <si>
-    <t>Spearman Rank</t>
   </si>
 </sst>
 </file>
@@ -408,15 +408,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F4"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" customWidth="1"/>
-    <col min="4" max="4" width="11.83203125" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -424,21 +423,21 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -458,7 +457,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0.40808020451300742</v>
@@ -478,7 +477,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>0.39243199491588882</v>
